--- a/biology/Médecine/1726_en_santé_et_médecine/1726_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1726_en_santé_et_médecine/1726_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1726_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1726_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1726 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1726_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1726_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Étienne-François Geoffroy (1672-1731) est élu doyen de la faculté de Paris.
 Création de la faculté de médecine de l'université d'Édimbourg.</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1726_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1726_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>The anatomy of the humane bones par Alexander Monro dit primus (1697-1767) : 245 éditions seront publiées entre 1726 et 2012 en 4 langues[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The anatomy of the humane bones par Alexander Monro dit primus (1697-1767) : 245 éditions seront publiées entre 1726 et 2012 en 4 langues.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1726_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1726_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er janvier : Jean-Denis Cochin (mort en 1783), curé de la paroisse Saint-Jacques-du-Haut-Pas, fondateur de l'hôpital qui porte son nom.
-26 janvier : Augustin Roux (mort en 1776), médecin français, rédacteur en chef du « Journal de médecine »[2].
+26 janvier : Augustin Roux (mort en 1776), médecin français, rédacteur en chef du « Journal de médecine ».
 3 juin : James Hutton (mort en 1797), médecin et géologue écossais.
 8 juillet :
 Paul Bosc d'Antic (mort en 1784), médecin et chimiste français.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1726_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1726_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>3 février : Alexis Littré (né en 1654), médecin anatomiste français.
 Date à préciser
